--- a/1-BasicData/2019ncov2.xlsx
+++ b/1-BasicData/2019ncov2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>2/9</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2/11</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,6 +849,40 @@
         <v>3281</v>
       </c>
     </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>42638</v>
+      </c>
+      <c r="C24">
+        <v>21675</v>
+      </c>
+      <c r="D24">
+        <v>1016</v>
+      </c>
+      <c r="E24">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>44653</v>
+      </c>
+      <c r="C25">
+        <v>16067</v>
+      </c>
+      <c r="D25">
+        <v>1113</v>
+      </c>
+      <c r="E25">
+        <v>4740</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
